--- a/FractionalMelting.xlsx
+++ b/FractionalMelting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="0" windowWidth="25600" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="5680" yWindow="40" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:Q202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
